--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220412.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220412.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="274">
   <si>
     <t>사이트</t>
   </si>
@@ -730,10 +730,10 @@
     <t>MORE VISION</t>
   </si>
   <si>
+    <t>ABYSS</t>
+  </si>
+  <si>
     <t>HIGH UP</t>
-  </si>
-  <si>
-    <t>ABYSS</t>
   </si>
   <si>
     <t>빅플래닛메이드</t>
@@ -1400,6 +1400,12 @@
       <c r="F8" t="s">
         <v>181</v>
       </c>
+      <c r="G8" t="s">
+        <v>238</v>
+      </c>
+      <c r="H8" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -1421,7 +1427,7 @@
         <v>182</v>
       </c>
       <c r="G9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H9" t="s">
         <v>248</v>
@@ -1447,7 +1453,7 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H10" t="s">
         <v>248</v>
@@ -2200,6 +2206,12 @@
       <c r="F39" t="s">
         <v>196</v>
       </c>
+      <c r="G39" t="s">
+        <v>238</v>
+      </c>
+      <c r="H39" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
@@ -3619,7 +3631,7 @@
         <v>226</v>
       </c>
       <c r="G94" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H94" t="s">
         <v>248</v>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220412.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220412.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>vibe</t>
+    <t>Vibe</t>
   </si>
   <si>
     <t>2022-04-12</t>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220412.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220412.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="274">
   <si>
     <t>사이트</t>
   </si>
@@ -1193,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3183,22 +3183,22 @@
         <v>9</v>
       </c>
       <c r="C77">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F77" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G77" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="H77" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3209,19 +3209,19 @@
         <v>9</v>
       </c>
       <c r="C78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F78" t="s">
-        <v>215</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H78" t="s">
         <v>248</v>
@@ -3235,22 +3235,22 @@
         <v>9</v>
       </c>
       <c r="C79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F79" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="G79" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="H79" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3261,22 +3261,22 @@
         <v>9</v>
       </c>
       <c r="C80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="F80" t="s">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="H80" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3287,22 +3287,22 @@
         <v>9</v>
       </c>
       <c r="C81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E81" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="G81" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="H81" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3313,22 +3313,22 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="F82" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G82" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="H82" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3339,22 +3339,22 @@
         <v>9</v>
       </c>
       <c r="C83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E83" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="F83" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="G83" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H83" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3365,19 +3365,19 @@
         <v>9</v>
       </c>
       <c r="C84">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E84" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="F84" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="G84" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="H84" t="s">
         <v>248</v>
@@ -3391,19 +3391,19 @@
         <v>9</v>
       </c>
       <c r="C85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E85" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="H85" t="s">
         <v>248</v>
@@ -3417,19 +3417,19 @@
         <v>9</v>
       </c>
       <c r="C86">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="G86" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="H86" t="s">
         <v>248</v>
@@ -3443,22 +3443,16 @@
         <v>9</v>
       </c>
       <c r="C87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E87" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>220</v>
-      </c>
-      <c r="G87" t="s">
-        <v>269</v>
-      </c>
-      <c r="H87" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3469,16 +3463,22 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="G88" t="s">
+        <v>270</v>
+      </c>
+      <c r="H88" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3489,22 +3489,22 @@
         <v>9</v>
       </c>
       <c r="C89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G89" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="H89" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3515,22 +3515,22 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G90" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="H90" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3541,19 +3541,19 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E91" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F91" t="s">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H91" t="s">
         <v>248</v>
@@ -3567,19 +3567,19 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E92" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="F92" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="G92" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="H92" t="s">
         <v>248</v>
@@ -3593,19 +3593,19 @@
         <v>9</v>
       </c>
       <c r="C93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E93" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F93" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G93" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="H93" t="s">
         <v>248</v>
@@ -3619,19 +3619,19 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E94" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="F94" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="G94" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H94" t="s">
         <v>248</v>
@@ -3645,19 +3645,19 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E95" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F95" t="s">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="G95" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="H95" t="s">
         <v>248</v>
@@ -3671,19 +3671,19 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E96" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="F96" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G96" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="H96" t="s">
         <v>248</v>
@@ -3697,19 +3697,19 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F97" t="s">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="G97" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H97" t="s">
         <v>248</v>
@@ -3723,19 +3723,19 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E98" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="F98" t="s">
-        <v>105</v>
+        <v>229</v>
       </c>
       <c r="G98" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="H98" t="s">
         <v>248</v>
@@ -3749,19 +3749,19 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E99" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="F99" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G99" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="H99" t="s">
         <v>248</v>
@@ -3775,19 +3775,19 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F100" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G100" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="H100" t="s">
         <v>248</v>
@@ -3801,47 +3801,21 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F101" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G101" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="H101" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" t="s">
-        <v>176</v>
-      </c>
-      <c r="F102" t="s">
-        <v>232</v>
-      </c>
-      <c r="G102" t="s">
-        <v>236</v>
-      </c>
-      <c r="H102" t="s">
         <v>236</v>
       </c>
     </row>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220412.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220412.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="273">
   <si>
     <t>사이트</t>
   </si>
@@ -764,9 +764,6 @@
   </si>
   <si>
     <t>물고기뮤직</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>SSK</t>
@@ -1791,7 +1788,7 @@
         <v>187</v>
       </c>
       <c r="G23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H23" t="s">
         <v>248</v>
@@ -1895,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="G27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H27" t="s">
         <v>248</v>
@@ -1973,10 +1970,10 @@
         <v>190</v>
       </c>
       <c r="G30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2025,10 +2022,10 @@
         <v>191</v>
       </c>
       <c r="G32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2103,7 +2100,7 @@
         <v>192</v>
       </c>
       <c r="G35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H35" t="s">
         <v>248</v>
@@ -2181,10 +2178,10 @@
         <v>195</v>
       </c>
       <c r="G38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2285,7 +2282,7 @@
         <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H42" t="s">
         <v>248</v>
@@ -2311,10 +2308,10 @@
         <v>51</v>
       </c>
       <c r="G43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2337,7 +2334,7 @@
         <v>199</v>
       </c>
       <c r="G44" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H44" t="s">
         <v>248</v>
@@ -2389,7 +2386,7 @@
         <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H46" t="s">
         <v>248</v>
@@ -2545,7 +2542,7 @@
         <v>202</v>
       </c>
       <c r="G52" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H52" t="s">
         <v>248</v>
@@ -2571,10 +2568,10 @@
         <v>203</v>
       </c>
       <c r="G53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2597,10 +2594,10 @@
         <v>204</v>
       </c>
       <c r="G54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2649,7 +2646,7 @@
         <v>64</v>
       </c>
       <c r="G56" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H56" t="s">
         <v>248</v>
@@ -2675,7 +2672,7 @@
         <v>191</v>
       </c>
       <c r="G57" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H57" t="s">
         <v>248</v>
@@ -2727,7 +2724,7 @@
         <v>206</v>
       </c>
       <c r="G59" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H59" t="s">
         <v>248</v>
@@ -2753,7 +2750,7 @@
         <v>207</v>
       </c>
       <c r="G60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H60" t="s">
         <v>248</v>
@@ -2831,7 +2828,7 @@
         <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H63" t="s">
         <v>248</v>
@@ -2857,10 +2854,10 @@
         <v>209</v>
       </c>
       <c r="G64" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H64" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2883,7 +2880,7 @@
         <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H65" t="s">
         <v>248</v>
@@ -2909,7 +2906,7 @@
         <v>210</v>
       </c>
       <c r="G66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H66" t="s">
         <v>248</v>
@@ -3013,7 +3010,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H70" t="s">
         <v>248</v>
@@ -3039,7 +3036,7 @@
         <v>211</v>
       </c>
       <c r="G71" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H71" t="s">
         <v>248</v>
@@ -3065,7 +3062,7 @@
         <v>212</v>
       </c>
       <c r="G72" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H72" t="s">
         <v>248</v>
@@ -3143,7 +3140,7 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H75" t="s">
         <v>248</v>
@@ -3195,7 +3192,7 @@
         <v>215</v>
       </c>
       <c r="G77" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H77" t="s">
         <v>248</v>
@@ -3221,7 +3218,7 @@
         <v>86</v>
       </c>
       <c r="G78" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H78" t="s">
         <v>248</v>
@@ -3247,10 +3244,10 @@
         <v>216</v>
       </c>
       <c r="G79" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H79" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3299,7 +3296,7 @@
         <v>217</v>
       </c>
       <c r="G81" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H81" t="s">
         <v>248</v>
@@ -3377,7 +3374,7 @@
         <v>219</v>
       </c>
       <c r="G84" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H84" t="s">
         <v>248</v>
@@ -3429,7 +3426,7 @@
         <v>220</v>
       </c>
       <c r="G86" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H86" t="s">
         <v>248</v>
@@ -3475,10 +3472,10 @@
         <v>222</v>
       </c>
       <c r="G88" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H88" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3527,7 +3524,7 @@
         <v>224</v>
       </c>
       <c r="G90" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H90" t="s">
         <v>248</v>
@@ -3553,7 +3550,7 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H91" t="s">
         <v>248</v>
@@ -3657,7 +3654,7 @@
         <v>227</v>
       </c>
       <c r="G95" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H95" t="s">
         <v>248</v>
@@ -3683,7 +3680,7 @@
         <v>228</v>
       </c>
       <c r="G96" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H96" t="s">
         <v>248</v>
@@ -3709,7 +3706,7 @@
         <v>105</v>
       </c>
       <c r="G97" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H97" t="s">
         <v>248</v>
@@ -3735,7 +3732,7 @@
         <v>229</v>
       </c>
       <c r="G98" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H98" t="s">
         <v>248</v>
@@ -3761,7 +3758,7 @@
         <v>230</v>
       </c>
       <c r="G99" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H99" t="s">
         <v>248</v>
